--- a/revenue_50_58.xlsx
+++ b/revenue_50_58.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="revenue_50_58" sheetId="1" r:id="rId1"/>
     <sheet name="group" sheetId="2" r:id="rId2"/>
-    <sheet name="graph" sheetId="3" r:id="rId3"/>
+    <sheet name="2" sheetId="4" r:id="rId3"/>
+    <sheet name="graph" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="95">
   <si>
     <t>Province</t>
   </si>
@@ -294,6 +295,18 @@
   </si>
   <si>
     <t>count</t>
+  </si>
+  <si>
+    <t>north</t>
+  </si>
+  <si>
+    <t>northeast</t>
+  </si>
+  <si>
+    <t>south</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -2399,7 +2412,7 @@
   <dimension ref="A1:G78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:G1048576"/>
+      <selection sqref="A1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4201,8 +4214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4785,6 +4798,2097 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O78"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E10" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2550</v>
+      </c>
+      <c r="D1">
+        <v>2552</v>
+      </c>
+      <c r="E1">
+        <v>2554</v>
+      </c>
+      <c r="F1">
+        <v>2556</v>
+      </c>
+      <c r="G1">
+        <v>2558</v>
+      </c>
+      <c r="J1">
+        <v>2550</v>
+      </c>
+      <c r="K1">
+        <v>2552</v>
+      </c>
+      <c r="L1">
+        <v>2554</v>
+      </c>
+      <c r="M1">
+        <v>2556</v>
+      </c>
+      <c r="N1">
+        <v>2558</v>
+      </c>
+      <c r="O1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>39020</v>
+      </c>
+      <c r="D2">
+        <v>42380</v>
+      </c>
+      <c r="E2">
+        <v>48951</v>
+      </c>
+      <c r="F2">
+        <v>49191</v>
+      </c>
+      <c r="G2">
+        <v>45572</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2">
+        <f>SUM(C2:C5)</f>
+        <v>119172</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:N2" si="0">SUM(D2:D5)</f>
+        <v>127051</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>129485</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>142891</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>148970</v>
+      </c>
+      <c r="O2">
+        <f>COUNTIF(B:B,"="&amp;B2)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>21302</v>
+      </c>
+      <c r="D3">
+        <v>23359</v>
+      </c>
+      <c r="E3">
+        <v>23798</v>
+      </c>
+      <c r="F3">
+        <v>29575</v>
+      </c>
+      <c r="G3">
+        <v>25457</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <f>SUM(C6:C27)</f>
+        <v>405149</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:N3" si="1">SUM(D6:D27)</f>
+        <v>453136</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="1"/>
+        <v>460734</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="1"/>
+        <v>566502</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="1"/>
+        <v>565645</v>
+      </c>
+      <c r="O3">
+        <f>COUNTIF(B:B,"="&amp;B7)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>32743</v>
+      </c>
+      <c r="D4">
+        <v>34626</v>
+      </c>
+      <c r="E4">
+        <v>35120</v>
+      </c>
+      <c r="F4">
+        <v>30664</v>
+      </c>
+      <c r="G4">
+        <v>36884</v>
+      </c>
+      <c r="I4" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4">
+        <f>SUM(C28:C44)</f>
+        <v>222931</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:N4" si="2">SUM(D28:D44)</f>
+        <v>263362</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="2"/>
+        <v>287114</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>328946</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="2"/>
+        <v>331671</v>
+      </c>
+      <c r="O4">
+        <f>COUNTIF(B:B,"="&amp;B28)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>26107</v>
+      </c>
+      <c r="D5">
+        <v>26686</v>
+      </c>
+      <c r="E5">
+        <v>21616</v>
+      </c>
+      <c r="F5">
+        <v>33461</v>
+      </c>
+      <c r="G5">
+        <v>41057</v>
+      </c>
+      <c r="I5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5">
+        <f>SUM(C45:C64)</f>
+        <v>241542</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:N5" si="3">SUM(D45:D64)</f>
+        <v>282357</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="3"/>
+        <v>340613</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>366119</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="3"/>
+        <v>413546</v>
+      </c>
+      <c r="O5">
+        <f>COUNTIF(B:B,"="&amp;B45)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>21676</v>
+      </c>
+      <c r="D6">
+        <v>25820</v>
+      </c>
+      <c r="E6">
+        <v>22302</v>
+      </c>
+      <c r="F6">
+        <v>26482</v>
+      </c>
+      <c r="G6">
+        <v>28379</v>
+      </c>
+      <c r="I6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6">
+        <f>SUM(C65:C78)</f>
+        <v>271740</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ref="K6:N6" si="4">SUM(D65:D78)</f>
+        <v>306669</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="4"/>
+        <v>366346</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="4"/>
+        <v>380595</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>352928</v>
+      </c>
+      <c r="O6">
+        <f>COUNTIF(B:B,"="&amp;B70)</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <v>17704</v>
+      </c>
+      <c r="D7">
+        <v>25506</v>
+      </c>
+      <c r="E7">
+        <v>21140</v>
+      </c>
+      <c r="F7">
+        <v>28641</v>
+      </c>
+      <c r="G7">
+        <v>23351</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>16852</v>
+      </c>
+      <c r="D8">
+        <v>22405</v>
+      </c>
+      <c r="E8">
+        <v>17178</v>
+      </c>
+      <c r="F8">
+        <v>23426</v>
+      </c>
+      <c r="G8">
+        <v>22955</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <f>J2*$O2</f>
+        <v>476688</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8:N8" si="5">K2*$O2</f>
+        <v>508204</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="5"/>
+        <v>517940</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="5"/>
+        <v>571564</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="5"/>
+        <v>595880</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>20558</v>
+      </c>
+      <c r="D9">
+        <v>25419</v>
+      </c>
+      <c r="E9">
+        <v>26068</v>
+      </c>
+      <c r="F9">
+        <v>28115</v>
+      </c>
+      <c r="G9">
+        <v>26112</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ref="J9:N9" si="6">J3*$O3</f>
+        <v>8913278</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="6"/>
+        <v>9968992</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="6"/>
+        <v>10136148</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="6"/>
+        <v>12463044</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="6"/>
+        <v>12444190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>13995</v>
+      </c>
+      <c r="D10">
+        <v>18719</v>
+      </c>
+      <c r="E10">
+        <v>20181</v>
+      </c>
+      <c r="F10">
+        <v>32754</v>
+      </c>
+      <c r="G10">
+        <v>22059</v>
+      </c>
+      <c r="I10" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ref="J10:N10" si="7">J4*$O4</f>
+        <v>3789827</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="7"/>
+        <v>4477154</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="7"/>
+        <v>4880938</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="7"/>
+        <v>5592082</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="7"/>
+        <v>5638407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>22363</v>
+      </c>
+      <c r="D11">
+        <v>21947</v>
+      </c>
+      <c r="E11">
+        <v>27114</v>
+      </c>
+      <c r="F11">
+        <v>32834</v>
+      </c>
+      <c r="G11">
+        <v>29413</v>
+      </c>
+      <c r="I11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ref="J11:N11" si="8">J5*$O5</f>
+        <v>4830840</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="8"/>
+        <v>5647140</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="8"/>
+        <v>6812260</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="8"/>
+        <v>7322380</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="8"/>
+        <v>8270920</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>22260</v>
+      </c>
+      <c r="D12">
+        <v>24052</v>
+      </c>
+      <c r="E12">
+        <v>23007</v>
+      </c>
+      <c r="F12">
+        <v>28367</v>
+      </c>
+      <c r="G12">
+        <v>27257</v>
+      </c>
+      <c r="I12" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12">
+        <f t="shared" ref="J12:N12" si="9">J6*$O6</f>
+        <v>3804360</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="9"/>
+        <v>4293366</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="9"/>
+        <v>5128844</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="9"/>
+        <v>5328330</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="9"/>
+        <v>4940992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>25090</v>
+      </c>
+      <c r="D13">
+        <v>22983</v>
+      </c>
+      <c r="E13">
+        <v>21929</v>
+      </c>
+      <c r="F13">
+        <v>30401</v>
+      </c>
+      <c r="G13">
+        <v>30315</v>
+      </c>
+      <c r="J13">
+        <f>SUM(J9:J12)/SUM($O3:$O6)</f>
+        <v>292305.54794520547</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ref="K13:N13" si="10">SUM(K9:K12)/SUM($O3:$O6)</f>
+        <v>334063.72602739726</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="10"/>
+        <v>369290.27397260274</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="10"/>
+        <v>420627.89041095891</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="10"/>
+        <v>428691.90410958906</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>18866</v>
+      </c>
+      <c r="D14">
+        <v>19442</v>
+      </c>
+      <c r="E14">
+        <v>24278</v>
+      </c>
+      <c r="F14">
+        <v>27284</v>
+      </c>
+      <c r="G14">
+        <v>36024</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>16664</v>
+      </c>
+      <c r="D15">
+        <v>16949</v>
+      </c>
+      <c r="E15">
+        <v>28118</v>
+      </c>
+      <c r="F15">
+        <v>21653</v>
+      </c>
+      <c r="G15">
+        <v>25333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>20665</v>
+      </c>
+      <c r="D16">
+        <v>21252</v>
+      </c>
+      <c r="E16">
+        <v>23031</v>
+      </c>
+      <c r="F16">
+        <v>34548</v>
+      </c>
+      <c r="G16">
+        <v>27555</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>18263</v>
+      </c>
+      <c r="D17">
+        <v>22548</v>
+      </c>
+      <c r="E17">
+        <v>25338</v>
+      </c>
+      <c r="F17">
+        <v>21039</v>
+      </c>
+      <c r="G17">
+        <v>24166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>15983</v>
+      </c>
+      <c r="D18">
+        <v>17503</v>
+      </c>
+      <c r="E18">
+        <v>17042</v>
+      </c>
+      <c r="F18">
+        <v>23391</v>
+      </c>
+      <c r="G18">
+        <v>23555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>13593</v>
+      </c>
+      <c r="D19">
+        <v>15525</v>
+      </c>
+      <c r="E19">
+        <v>17781</v>
+      </c>
+      <c r="F19">
+        <v>24805</v>
+      </c>
+      <c r="G19">
+        <v>26953</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>17576</v>
+      </c>
+      <c r="D20">
+        <v>20994</v>
+      </c>
+      <c r="E20">
+        <v>18713</v>
+      </c>
+      <c r="F20">
+        <v>25742</v>
+      </c>
+      <c r="G20">
+        <v>19590</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>15326</v>
+      </c>
+      <c r="D21">
+        <v>17571</v>
+      </c>
+      <c r="E21">
+        <v>15210</v>
+      </c>
+      <c r="F21">
+        <v>18746</v>
+      </c>
+      <c r="G21">
+        <v>18884</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>15112</v>
+      </c>
+      <c r="D22">
+        <v>15797</v>
+      </c>
+      <c r="E22">
+        <v>15928</v>
+      </c>
+      <c r="F22">
+        <v>17260</v>
+      </c>
+      <c r="G22">
+        <v>15786</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>25447</v>
+      </c>
+      <c r="D23">
+        <v>24989</v>
+      </c>
+      <c r="E23">
+        <v>22955</v>
+      </c>
+      <c r="F23">
+        <v>30856</v>
+      </c>
+      <c r="G23">
+        <v>40347</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>18735</v>
+      </c>
+      <c r="D24">
+        <v>20978</v>
+      </c>
+      <c r="E24">
+        <v>20850</v>
+      </c>
+      <c r="F24">
+        <v>23658</v>
+      </c>
+      <c r="G24">
+        <v>29347</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>12634</v>
+      </c>
+      <c r="D25">
+        <v>18363</v>
+      </c>
+      <c r="E25">
+        <v>15068</v>
+      </c>
+      <c r="F25">
+        <v>16257</v>
+      </c>
+      <c r="G25">
+        <v>18310</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>17855</v>
+      </c>
+      <c r="D26">
+        <v>17440</v>
+      </c>
+      <c r="E26">
+        <v>20026</v>
+      </c>
+      <c r="F26">
+        <v>21784</v>
+      </c>
+      <c r="G26">
+        <v>26431</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>17932</v>
+      </c>
+      <c r="D27">
+        <v>16934</v>
+      </c>
+      <c r="E27">
+        <v>17477</v>
+      </c>
+      <c r="F27">
+        <v>28459</v>
+      </c>
+      <c r="G27">
+        <v>23523</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>14386</v>
+      </c>
+      <c r="D28">
+        <v>16141</v>
+      </c>
+      <c r="E28">
+        <v>18323</v>
+      </c>
+      <c r="F28">
+        <v>14393</v>
+      </c>
+      <c r="G28">
+        <v>14950</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>14104</v>
+      </c>
+      <c r="D29">
+        <v>20048</v>
+      </c>
+      <c r="E29">
+        <v>18778</v>
+      </c>
+      <c r="F29">
+        <v>22505</v>
+      </c>
+      <c r="G29">
+        <v>23834</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30">
+        <v>13531</v>
+      </c>
+      <c r="D30">
+        <v>14020</v>
+      </c>
+      <c r="E30">
+        <v>18454</v>
+      </c>
+      <c r="F30">
+        <v>19262</v>
+      </c>
+      <c r="G30">
+        <v>20466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31">
+        <v>15001</v>
+      </c>
+      <c r="D31">
+        <v>15865</v>
+      </c>
+      <c r="E31">
+        <v>17602</v>
+      </c>
+      <c r="F31">
+        <v>21344</v>
+      </c>
+      <c r="G31">
+        <v>19239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>14045</v>
+      </c>
+      <c r="D32">
+        <v>13034</v>
+      </c>
+      <c r="E32">
+        <v>18157</v>
+      </c>
+      <c r="F32">
+        <v>19418</v>
+      </c>
+      <c r="G32">
+        <v>21796</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>11407</v>
+      </c>
+      <c r="D33">
+        <v>14624</v>
+      </c>
+      <c r="E33">
+        <v>16249</v>
+      </c>
+      <c r="F33">
+        <v>17598</v>
+      </c>
+      <c r="G33">
+        <v>17886</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <v>11348</v>
+      </c>
+      <c r="D34">
+        <v>13189</v>
+      </c>
+      <c r="E34">
+        <v>14457</v>
+      </c>
+      <c r="F34">
+        <v>15491</v>
+      </c>
+      <c r="G34">
+        <v>17673</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35">
+        <v>13736</v>
+      </c>
+      <c r="D35">
+        <v>13278</v>
+      </c>
+      <c r="E35">
+        <v>15034</v>
+      </c>
+      <c r="F35">
+        <v>13510</v>
+      </c>
+      <c r="G35">
+        <v>13497</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" t="s">
+        <v>31</v>
+      </c>
+      <c r="C36">
+        <v>7245</v>
+      </c>
+      <c r="D36">
+        <v>7936</v>
+      </c>
+      <c r="E36">
+        <v>9024</v>
+      </c>
+      <c r="F36">
+        <v>8821</v>
+      </c>
+      <c r="G36">
+        <v>15119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37">
+        <v>15141</v>
+      </c>
+      <c r="D37">
+        <v>17127</v>
+      </c>
+      <c r="E37">
+        <v>21561</v>
+      </c>
+      <c r="F37">
+        <v>24158</v>
+      </c>
+      <c r="G37">
+        <v>21952</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38">
+        <v>12036</v>
+      </c>
+      <c r="D38">
+        <v>17425</v>
+      </c>
+      <c r="E38">
+        <v>18487</v>
+      </c>
+      <c r="F38">
+        <v>20150</v>
+      </c>
+      <c r="G38">
+        <v>20115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39">
+        <v>15559</v>
+      </c>
+      <c r="D39">
+        <v>18115</v>
+      </c>
+      <c r="E39">
+        <v>18672</v>
+      </c>
+      <c r="F39">
+        <v>22083</v>
+      </c>
+      <c r="G39">
+        <v>20140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40">
+        <v>10791</v>
+      </c>
+      <c r="D40">
+        <v>12453</v>
+      </c>
+      <c r="E40">
+        <v>12936</v>
+      </c>
+      <c r="F40">
+        <v>17020</v>
+      </c>
+      <c r="G40">
+        <v>20079</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41">
+        <v>12720</v>
+      </c>
+      <c r="D41">
+        <v>15411</v>
+      </c>
+      <c r="E41">
+        <v>18098</v>
+      </c>
+      <c r="F41">
+        <v>24121</v>
+      </c>
+      <c r="G41">
+        <v>22252</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42">
+        <v>13364</v>
+      </c>
+      <c r="D42">
+        <v>15779</v>
+      </c>
+      <c r="E42">
+        <v>17474</v>
+      </c>
+      <c r="F42">
+        <v>27490</v>
+      </c>
+      <c r="G42">
+        <v>19235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43">
+        <v>15603</v>
+      </c>
+      <c r="D43">
+        <v>21821</v>
+      </c>
+      <c r="E43">
+        <v>18130</v>
+      </c>
+      <c r="F43">
+        <v>21664</v>
+      </c>
+      <c r="G43">
+        <v>22101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44">
+        <v>12914</v>
+      </c>
+      <c r="D44">
+        <v>17096</v>
+      </c>
+      <c r="E44">
+        <v>15678</v>
+      </c>
+      <c r="F44">
+        <v>19918</v>
+      </c>
+      <c r="G44">
+        <v>21337</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45">
+        <v>14177</v>
+      </c>
+      <c r="D45">
+        <v>19158</v>
+      </c>
+      <c r="E45">
+        <v>19399</v>
+      </c>
+      <c r="F45">
+        <v>22479</v>
+      </c>
+      <c r="G45">
+        <v>26376</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46">
+        <v>10263</v>
+      </c>
+      <c r="D46">
+        <v>13734</v>
+      </c>
+      <c r="E46">
+        <v>17316</v>
+      </c>
+      <c r="F46">
+        <v>15624</v>
+      </c>
+      <c r="G46">
+        <v>18480</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47">
+        <v>12257</v>
+      </c>
+      <c r="D47">
+        <v>11310</v>
+      </c>
+      <c r="E47">
+        <v>18287</v>
+      </c>
+      <c r="F47">
+        <v>21351</v>
+      </c>
+      <c r="G47">
+        <v>20315</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48">
+        <v>10782</v>
+      </c>
+      <c r="D48">
+        <v>10666</v>
+      </c>
+      <c r="E48">
+        <v>13944</v>
+      </c>
+      <c r="F48">
+        <v>16207</v>
+      </c>
+      <c r="G48">
+        <v>18793</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49">
+        <v>14534</v>
+      </c>
+      <c r="D49">
+        <v>16747</v>
+      </c>
+      <c r="E49">
+        <v>21660</v>
+      </c>
+      <c r="F49">
+        <v>22344</v>
+      </c>
+      <c r="G49">
+        <v>20453</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>10040</v>
+      </c>
+      <c r="D50">
+        <v>11813</v>
+      </c>
+      <c r="E50">
+        <v>16767</v>
+      </c>
+      <c r="F50">
+        <v>14418</v>
+      </c>
+      <c r="G50">
+        <v>19518</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51">
+        <v>11253</v>
+      </c>
+      <c r="D51">
+        <v>12380</v>
+      </c>
+      <c r="E51">
+        <v>15794</v>
+      </c>
+      <c r="F51">
+        <v>18641</v>
+      </c>
+      <c r="G51">
+        <v>23830</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52">
+        <v>11889</v>
+      </c>
+      <c r="D52">
+        <v>14763</v>
+      </c>
+      <c r="E52">
+        <v>15975</v>
+      </c>
+      <c r="F52">
+        <v>17273</v>
+      </c>
+      <c r="G52">
+        <v>21173</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>49</v>
+      </c>
+      <c r="F53">
+        <v>20207</v>
+      </c>
+      <c r="G53">
+        <v>23767</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54">
+        <v>11889</v>
+      </c>
+      <c r="D54">
+        <v>14012</v>
+      </c>
+      <c r="E54">
+        <v>17139</v>
+      </c>
+      <c r="F54">
+        <v>15390</v>
+      </c>
+      <c r="G54">
+        <v>22553</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55">
+        <v>15065</v>
+      </c>
+      <c r="D55">
+        <v>19779</v>
+      </c>
+      <c r="E55">
+        <v>16030</v>
+      </c>
+      <c r="F55">
+        <v>18095</v>
+      </c>
+      <c r="G55">
+        <v>21337</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>60</v>
+      </c>
+      <c r="B56" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56">
+        <v>17273</v>
+      </c>
+      <c r="D56">
+        <v>16684</v>
+      </c>
+      <c r="E56">
+        <v>22017</v>
+      </c>
+      <c r="F56">
+        <v>25966</v>
+      </c>
+      <c r="G56">
+        <v>22817</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57">
+        <v>13765</v>
+      </c>
+      <c r="D57">
+        <v>13411</v>
+      </c>
+      <c r="E57">
+        <v>17958</v>
+      </c>
+      <c r="F57">
+        <v>16338</v>
+      </c>
+      <c r="G57">
+        <v>20990</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58">
+        <v>12885</v>
+      </c>
+      <c r="D58">
+        <v>14467</v>
+      </c>
+      <c r="E58">
+        <v>16979</v>
+      </c>
+      <c r="F58">
+        <v>18058</v>
+      </c>
+      <c r="G58">
+        <v>21207</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59">
+        <v>15812</v>
+      </c>
+      <c r="D59">
+        <v>19845</v>
+      </c>
+      <c r="E59">
+        <v>25461</v>
+      </c>
+      <c r="F59">
+        <v>21644</v>
+      </c>
+      <c r="G59">
+        <v>18540</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>64</v>
+      </c>
+      <c r="B60" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60">
+        <v>11779</v>
+      </c>
+      <c r="D60">
+        <v>14932</v>
+      </c>
+      <c r="E60">
+        <v>20167</v>
+      </c>
+      <c r="F60">
+        <v>20505</v>
+      </c>
+      <c r="G60">
+        <v>19990</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61">
+        <v>12507</v>
+      </c>
+      <c r="D61">
+        <v>11748</v>
+      </c>
+      <c r="E61">
+        <v>17293</v>
+      </c>
+      <c r="F61">
+        <v>13921</v>
+      </c>
+      <c r="G61">
+        <v>15452</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62">
+        <v>11957</v>
+      </c>
+      <c r="D62">
+        <v>16679</v>
+      </c>
+      <c r="E62">
+        <v>15326</v>
+      </c>
+      <c r="F62">
+        <v>16854</v>
+      </c>
+      <c r="G62">
+        <v>19281</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63">
+        <v>10009</v>
+      </c>
+      <c r="D63">
+        <v>12859</v>
+      </c>
+      <c r="E63">
+        <v>14053</v>
+      </c>
+      <c r="F63">
+        <v>14310</v>
+      </c>
+      <c r="G63">
+        <v>15804</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>68</v>
+      </c>
+      <c r="B64" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64">
+        <v>13406</v>
+      </c>
+      <c r="D64">
+        <v>17370</v>
+      </c>
+      <c r="E64">
+        <v>19048</v>
+      </c>
+      <c r="F64">
+        <v>16494</v>
+      </c>
+      <c r="G64">
+        <v>22870</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" t="s">
+        <v>70</v>
+      </c>
+      <c r="C65">
+        <v>18087</v>
+      </c>
+      <c r="D65">
+        <v>23296</v>
+      </c>
+      <c r="E65">
+        <v>29970</v>
+      </c>
+      <c r="F65">
+        <v>27479</v>
+      </c>
+      <c r="G65">
+        <v>25124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="C66">
+        <v>18852</v>
+      </c>
+      <c r="D66">
+        <v>23647</v>
+      </c>
+      <c r="E66">
+        <v>33350</v>
+      </c>
+      <c r="F66">
+        <v>27276</v>
+      </c>
+      <c r="G66">
+        <v>31012</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" t="s">
+        <v>70</v>
+      </c>
+      <c r="C67">
+        <v>22211</v>
+      </c>
+      <c r="D67">
+        <v>22356</v>
+      </c>
+      <c r="E67">
+        <v>24470</v>
+      </c>
+      <c r="F67">
+        <v>26168</v>
+      </c>
+      <c r="G67">
+        <v>28842</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C68">
+        <v>25084</v>
+      </c>
+      <c r="D68">
+        <v>28515</v>
+      </c>
+      <c r="E68">
+        <v>26048</v>
+      </c>
+      <c r="F68">
+        <v>31857</v>
+      </c>
+      <c r="G68">
+        <v>31500</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69">
+        <v>26207</v>
+      </c>
+      <c r="D69">
+        <v>30604</v>
+      </c>
+      <c r="E69">
+        <v>34417</v>
+      </c>
+      <c r="F69">
+        <v>36865</v>
+      </c>
+      <c r="G69">
+        <v>36466</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" t="s">
+        <v>70</v>
+      </c>
+      <c r="C70">
+        <v>21620</v>
+      </c>
+      <c r="D70">
+        <v>19274</v>
+      </c>
+      <c r="E70">
+        <v>26049</v>
+      </c>
+      <c r="F70">
+        <v>32292</v>
+      </c>
+      <c r="G70">
+        <v>22035</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71" t="s">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>19003</v>
+      </c>
+      <c r="D71">
+        <v>25179</v>
+      </c>
+      <c r="E71">
+        <v>28022</v>
+      </c>
+      <c r="F71">
+        <v>27540</v>
+      </c>
+      <c r="G71">
+        <v>29306</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72">
+        <v>22342</v>
+      </c>
+      <c r="D72">
+        <v>27356</v>
+      </c>
+      <c r="E72">
+        <v>26711</v>
+      </c>
+      <c r="F72">
+        <v>26824</v>
+      </c>
+      <c r="G72">
+        <v>27660</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73" t="s">
+        <v>70</v>
+      </c>
+      <c r="C73">
+        <v>17328</v>
+      </c>
+      <c r="D73">
+        <v>20695</v>
+      </c>
+      <c r="E73">
+        <v>21047</v>
+      </c>
+      <c r="F73">
+        <v>25400</v>
+      </c>
+      <c r="G73">
+        <v>23209</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74" t="s">
+        <v>70</v>
+      </c>
+      <c r="C74">
+        <v>23650</v>
+      </c>
+      <c r="D74">
+        <v>21992</v>
+      </c>
+      <c r="E74">
+        <v>36245</v>
+      </c>
+      <c r="F74">
+        <v>33270</v>
+      </c>
+      <c r="G74">
+        <v>23309</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75" t="s">
+        <v>70</v>
+      </c>
+      <c r="C75">
+        <v>18670</v>
+      </c>
+      <c r="D75">
+        <v>19381</v>
+      </c>
+      <c r="E75">
+        <v>25202</v>
+      </c>
+      <c r="F75">
+        <v>26169</v>
+      </c>
+      <c r="G75">
+        <v>21478</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" t="s">
+        <v>70</v>
+      </c>
+      <c r="C76">
+        <v>11840</v>
+      </c>
+      <c r="D76">
+        <v>13511</v>
+      </c>
+      <c r="E76">
+        <v>16122</v>
+      </c>
+      <c r="F76">
+        <v>20199</v>
+      </c>
+      <c r="G76">
+        <v>17513</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77" t="s">
+        <v>70</v>
+      </c>
+      <c r="C77">
+        <v>13698</v>
+      </c>
+      <c r="D77">
+        <v>19619</v>
+      </c>
+      <c r="E77">
+        <v>21859</v>
+      </c>
+      <c r="F77">
+        <v>22483</v>
+      </c>
+      <c r="G77">
+        <v>15584</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78" t="s">
+        <v>70</v>
+      </c>
+      <c r="C78">
+        <v>13148</v>
+      </c>
+      <c r="D78">
+        <v>11244</v>
+      </c>
+      <c r="E78">
+        <v>16834</v>
+      </c>
+      <c r="F78">
+        <v>16773</v>
+      </c>
+      <c r="G78">
+        <v>19890</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
